--- a/app/pipeline_run_stats.xlsx
+++ b/app/pipeline_run_stats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O76"/>
+  <dimension ref="A1:O78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4565,6 +4565,112 @@
         <v>5</v>
       </c>
     </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>20260202_123746</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2026-02-02 12:37:46</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2026-02-02 12:41:48</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>STARTED</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>20260202_124211</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2026-02-02 12:42:11</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2026-02-02 12:51:55</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="n">
+        <v>69</v>
+      </c>
+      <c r="G78" t="n">
+        <v>22</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>10</v>
+      </c>
+      <c r="J78" t="n">
+        <v>59</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="n">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/app/pipeline_run_stats.xlsx
+++ b/app/pipeline_run_stats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O78"/>
+  <dimension ref="A1:O79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4671,6 +4671,59 @@
         <v>69</v>
       </c>
     </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>20260202_135125</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2026-02-02 13:51:25</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2026-02-02 13:58:32</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="n">
+        <v>43</v>
+      </c>
+      <c r="G79" t="n">
+        <v>22</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>9</v>
+      </c>
+      <c r="J79" t="n">
+        <v>34</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="n">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/app/pipeline_run_stats.xlsx
+++ b/app/pipeline_run_stats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O79"/>
+  <dimension ref="A1:O86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4724,6 +4724,389 @@
         <v>43</v>
       </c>
     </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>20260203_120137</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2026-02-03 12:01:37</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2026-02-03 12:10:20</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="n">
+        <v>39</v>
+      </c>
+      <c r="G80" t="n">
+        <v>16</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>12</v>
+      </c>
+      <c r="J80" t="n">
+        <v>27</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>20260203_130437</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2026-02-03 13:04:37</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2026-02-03 13:40:55</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Execution failed on sql 'INSERT INTO news (date, headline, content, url, lang, cutoff_time, er_uri, er_is_duplicate, er_original_uri, dup_group_id, is_duplicate, er_event_uri, company_name, blogpost_links, valid, cat_reason, relevance, qc_tags, tag_reason, url_status, url_status_code, filtered_content, ads_removed_flag, removed_text, filtered_content_html, locations, supplier_location, category_id, category_name, risk_rating, risk_level, company_id, news_id, analyst_dup, analyst_cat, analyst_tag, analyst_approval, processed, analyst_risk_level, analyst_remark, analyst_cat_id, source, ingestion_date, created_at) VALUES (:date_m0, :headline_m0, :content_m0, :url_m0, :lang_m0, :cutoff_time_m0, :er_uri_m0, :er_is_duplicate_m0, :er_original_uri_m0, :dup_group_id_m0, :is_duplicate_m0, :er_event_uri_m0, :company_name_m0, :blogpost_links_m0, :valid_m0, :cat_reason_m0, :relevance_m0, :qc_tags_m0, :tag_reason_m0, :url_status_m0, :url_status_code_m0, :filtered_content_m0, :ads_removed_flag_m0, :removed_text_m0, :filtered_content_html_m0, :locations_m0, :supplier_location_m0, :category_id_m0, :category_name_m0, :risk_rating_m0, :risk_level_m0, :company_id_m0, :news_id_m0, :analyst_dup_m0, :analyst_cat_m0, :analyst_tag_m0, :analyst_approval_m0, :processed_m0, :analyst_risk_level_m0, :analyst_remark_m0, :analyst_cat_id_m0, :source_m0, :ingestion_date_m0, :created_at_m0), (:date_m1, :headline_m1, :content_m1, :url_m1, :lang_m1, :cutoff_time_m1, :er_uri_m1, :er_is_duplicate_m1, :er_original_uri_m1, :dup_group_id_m1, :is_duplicate_m1, :er_event_uri_m1, :company_name_m1, :blogpost_links_m1, :valid_m1, :cat_reason_m1, :relevance_m1, :qc_tags_m1, :tag_reason_m1, :url_status_m1, :url_status_code_m1, :filtered_content_m1, :ads_removed_flag_m1, :removed_text_m1, :filtered_content_html_m1, :locations_m1, :supplier_location_m1, :category_id_m1, :category_name_m1, :risk_rating_m1, :risk_level_m1, :company_id_m1, :news_id_m1, :analyst_dup_m1, :analyst_cat_m1, :analyst_tag_m1, :analyst_approval_m1, :processed_m1, :analyst_risk_level_m1, :analyst_remark_m1, :analyst_cat_id_m1, :source_m1, :ingestion_date_m1, :created_at_m1), (:date_m2, :headline_m2, :content_m2, :url_m2, :lang_m2, :cutoff_time_m2, :er_uri_m2, :er_is_duplicate_m2, :er_original_uri_m2, :dup_group_id_m2, :is_duplicate_m2, :er_event_uri_m2, :company_name_m2, :blogpost_links_m2, :valid_m2, :cat_reason_m2, :relevance_m2, :qc_tags_m2, :tag_reason_m2, :url_status_m2, :url_status_code_m2, :filtered_content_m2, :ads_removed_flag_m2, :removed_text_m2, :filtered_content_html_m2, :locations_m2, :supplier_location_m2, :category_id_m2, :category_name_m2, :risk_rating_m2, :risk_level_m2, :company_id_m2, :news_id_m2, :analyst_dup_m2, :analyst_cat_m2, :analyst_tag_m2, :analyst_approval_m2, :processed_m2, :analyst_risk_level_m2, :analyst_remark_m2, :analyst_cat_id_m2, :source_m2, :ingestion_date_m2, :created_at_m2), (:date_m3, :headline_m3, :content_m3, :url_m3, :lang_m3, :cutoff_time_m3, :er_uri_m3, :er_is_duplicate_m3, :er_original_uri_m3, :dup_group_id_m3, :is_duplicate_m3, :er_event_uri_m3, :company_name_m3, :blogpost_links_m3, :valid_m3, :cat_reason_m3, :relevance_m3, :qc_tags_m3, :tag_reason_m3, :url_status_m3, :url_status_code_m3, :filtered_content_m3, :ads_removed_flag_m3, :removed_text_m3, :filtered_content_html_m3, :locations_m3, :supplier_location_m3, :category_id_m3, :category_name_m3, :risk_rating_m3, :risk_level_m3, :company_id_m3, :news_id_m3, :analyst_dup_m3, :analyst_cat_m3, :analyst_tag_m3, :analyst_approval_m3, :processed_m3, :analyst_risk_level_m3, :analyst_remark_m3, :analyst_cat_id_m3, :source_m3, :ingestion_date_m3, :created_at_m3), (:date_m4, :headline_m4, :content_m4, :url_m4, :lang_m4, :cutoff_time_m4, :er_uri_m4, :er_is_duplicate_m4, :er_original_uri_m4, :dup_group_id_m4, :is_duplicate_m4, :er_event_uri_m4, :company_name_m4, :blogpost_links_m4, :valid_m4, :cat_reason_m4, :relevance_m4, :qc_tags_m4, :tag_reason_m4, :url_status_m4, :url_status_code_m4, :filtered_content_m4, :ads_removed_flag_m4, :removed_text_m4, :filtered_content_html_m4, :locations_m4, :supplier_location_m4, :category_id_m4, :category_name_m4, :risk_rating_m4, :risk_level_m4, :company_id_m4, :news_id_m4, :analyst_dup_m4, :analyst_cat_m4, :analyst_tag_m4, :analyst_approval_m4, :processed_m4, :analyst_risk_level_m4, :analyst_remark_m4, :analyst_cat_id_m4, :source_m4, :ingestion_date_m4, :created_at_m4), (:date_m5, :headline_m5, :content_m5, :url_m5, :lang_m5, :cutoff_time_m5, :er_uri_m5, :er_is_duplicate_m5, :er_original_uri_m5, :dup_group_id_m5, :is_duplicate_m5, :er_event_uri_m5, :company_name_m5, :blogpost_links_m5, :valid_m5, :cat_reason_m5, :relevance_m5, :qc_tags_m5, :tag_reason_m5, :url_status_m5, :url_status_code_m5, :filtered_content_m5, :ads_removed_flag_m5, :removed_text_m5, :filtered_content_html_m5, :locations_m5, :supplier_location_m5, :category_id_m5, :category_name_m5, :risk_rating_m5, :risk_level_m5, :company_id_m5, :news_id_m5, :analyst_dup_m5, :analyst_cat_m5, :analyst_tag_m5, :analyst_approval_m5, :processed_m5, :analyst_risk_level_m5, :analyst_remark_m5, :analyst_cat_id_m5, :source_m5, :ingestion_date_m5, :created_at_m5), (:date_m6, :headline_m6, :content_m6, :url_m6, :lang_m6, :cutoff_time_m6, :er_uri_m6, :er_is_duplicate_m6, :er_original_uri_m6, :dup_group_id_m6, :is_duplicate_m6, :er_event_uri_m6, :company_name_m6, :blogpost_links_m6, :valid_m6, :cat_reason_m6, :relevance_m6, :qc_tags_m6, :tag_reason_m6, :url_status_m6, :url_status_code_m6, :filtered_content_m6, :ads_removed_flag_m6, :removed_text_m6, :filtered_content_html_m6, :locations_m6, :supplier_location_m6, :category_id_m6, :category_name_m6, :risk_rating_m6, :risk_level_m6, :company_id_m6, :news_id_m6, :analyst_dup_m6, :analyst_cat_m6, :analyst_tag_m6, :analyst_approval_m6, :processed_m6, :analyst_risk_level_m6, :analyst_remark_m6, :analyst_cat_id_m6, :source_m6, :ingestion_date_m6, :created_at_m6), (:date_m7, :headline_m7, :content_m7, :url_m7, :lang_m7, :cutoff_time_m7, :er_uri_m7, :er_is_duplicate_m7, :er_original_uri_m7, :dup_group_id_m7, :is_duplicate_m7, :er_event_uri_m7, :company_name_m7, :blogpost_links_m7, :valid_m7, :cat_reason_m7, :relevance_m7, :qc_tags_m7, :tag_reason_m7, :url_status_m7, :url_status_code_m7, :filtered_content_m7, :ads_removed_flag_m7, :removed_text_m7, :filtered_content_html_m7, :locations_m7, :supplier_location_m7, :category_id_m7, :category_name_m7, :risk_rating_m7, :risk_level_m7, :company_id_m7, :news_id_m7, :analyst_dup_m7, :analyst_cat_m7, :analyst_tag_m7, :analyst_approval_m7, :processed_m7, :analyst_risk_level_m7, :analyst_remark_m7, :analyst_cat_id_m7, :source_m7, :ingestion_date_m7, :created_at_m7), (:date_m8, :headline_m8, :content_m8, :url_m8, :lang_m8, :cutoff_time_m8, :er_uri_m8, :er_is_duplicate_m8, :er_original_uri_m8, :dup_group_id_m8, :is_duplicate_m8, :er_event_uri_m8, :company_name_m8, :blogpost_links_m8, :valid_m8, :cat_reason_m8, :relevance_m8, :qc_tags_m8, :tag_reason_m8, :url_status_m8, :url_status_code_m8, :filtered_content_m8, :ads_removed_flag_m8, :removed_text_m8, :filtered_content_html_m8, :locations_m8, :supplier_location_m8, :category_id_m8, :category_name_m8, :risk_rating_m8, :risk_level_m8, :company_id_m8, :news_id_m8, :analyst_dup_m8, :analyst_cat_m8, :analyst_tag_m8, :analyst_approval_m8, :processed_m8, :analyst_risk_level_m8, :analyst_remark_m8, :analyst_cat_id_m8, :source_m8, :ingestion_date_m8, :created_at_m8), (:date_m9, :headline_m9, :content_m9, :url_m9, :lang_m9, :cutoff_time_m9, :er_uri_m9, :er_is_duplicate_m9, :er_original_uri_m9, :dup_group_id_m9, :is_duplicate_m9, :er_event_uri_m9, :company_name_m9, :blogpost_links_m9, :valid_m9, :cat_reason_m9, :relevance_m9, :qc_tags_m9, :tag_reason_m9, :url_status_m9, :url_status_code_m9, :filtered_content_m9, :ads_removed_flag_m9, :removed_text_m9, :filtered_content_html_m9, :locations_m9, :supplier_location_m9, :category_id_m9, :category_name_m9, :risk_rating_m9, :risk_level_m9, :company_id_m9, :news_id_m9, :analyst_dup_m9, :analyst_cat_m9, :analyst_tag_m9, :analyst_approval_m9, :processed_m9, :analyst_risk_level_m9, :analyst_remark_m9, :analyst_cat_id_m9, :source_m9, :ingestion_date_m9, :created_at_m9), (:date_m10, :headline_m10, :content_m10, :url_m10, :lang_m10, :cutoff_time_m10, :er_uri_m10, :er_is_duplicate_m10, :er_original_uri_m10, :dup_group_id_m10, :is_duplicate_m10, :er_event_uri_m10, :company_name_m10, :blogpost_links_m10, :valid_m10, :cat_reason_m10, :relevance_m10, :qc_tags_m10, :tag_reason_m10, :url_status_m10, :url_status_code_m10, :filtered_content_m10, :ads_removed_flag_m10, :removed_text_m10, :filtered_content_html_m10, :locations_m10, :supplier_location_m10, :category_id_m10, :category_name_m10, :risk_rating_m10, :risk_level_m10, :company_id_m10, :news_id_m10, :analyst_dup_m10, :analyst_cat_m10, :analyst_tag_m10, :analyst_approval_m10, :processed_m10, :analyst_risk_level_m10, :analyst_remark_m10, :analyst_cat_id_m10, :source_m10, :ingestion_date_m10, :created_at_m10), (:date_m11, :headline_m11, :content_m11, :url_m11, :lang_m11, :cutoff_time_m11, :er_uri_m11, :er_is_duplicate_m11, :er_original_uri_m11, :dup_group_id_m11, :is_duplicate_m11, :er_event_uri_m11, :company_name_m11, :blogpost_links_m11, :valid_m11, :cat_reason_m11, :relevance_m11, :qc_tags_m11, :tag_reason_m11, :url_status_m11, :url_status_code_m11, :filtered_content_m11, :ads_removed_flag_m11, :removed_text_m11, :filtered_content_html_m11, :locations_m11, :supplier_location_m11, :category_id_m11, :category_name_m11, :risk_rating_m11, :risk_level_m11, :company_id_m11, :news_id_m11, :analyst_dup_m11, :analyst_cat_m11, :analyst_tag_m11, :analyst_approval_m11, :processed_m11, :analyst_risk_level_m11, :analyst_remark_m11, :analyst_cat_id_m11, :source_m11, :ingestion_date_m11, :created_at_m11), (:date_m12, :headline_m12, :content_m12, :url_m12, :lang_m12, :cutoff_time_m12, :er_uri_m12, :er_is_duplicate_m12, :er_original_uri_m12, :dup_group_id_m12, :is_duplicate_m12, :er_event_uri_m12, :company_name_m12, :blogpost_links_m12, :valid_m12, :cat_reason_m12, :relevance_m12, :qc_tags_m12, :tag_reason_m12, :url_status_m12, :url_status_code_m12, :filtered_content_m12, :ads_removed_flag_m12, :removed_text_m12, :filtered_content_html_m12, :locations_m12, :supplier_location_m12, :category_id_m12, :category_name_m12, :risk_rating_m12, :risk_level_m12, :company_id_m12, :news_id_m12, :analyst_dup_m12, :analyst_cat_m12, :analyst_tag_m12, :analyst_approval_m12, :processed_m12, :analyst_risk_level_m12, :analyst_remark_m12, :analyst_cat_id_m12, :source_m12, :ingestion_date_m12, :created_at_m12), (:date_m13, :headline_m13, :content_m13, :url_m13, :lang_m13, :cutoff_time_m13, :er_uri_m13, :er_is_duplicate_m13, :er_original_uri_m13, :dup_group_id_m13, :is_duplicate_m13, :er_event_uri_m13, :company_name_m13, :blogpost_links_m13, :valid_m13, :cat_reason_m13, :relevance_m13, :qc_tags_m13, :tag_reason_m13, :url_status_m13, :url_status_code_m13, :filtered_content_m13, :ads_removed_flag_m13, :removed_text_m13, :filtered_content_html_m13, :locations_m13, :supplier_location_m13, :category_id_m13, :category_name_m13, :risk_rating_m13, :risk_level_m13, :company_id_m13, :news_id_m13, :analyst_dup_m13, :analyst_cat_m13, :analyst_tag_m13, :analyst_approval_m13, :processed_m13, :analyst_risk_level_m13, :analyst_remark_m13, :analyst_cat_id_m13, :source_m13, :ingestion_date_m13, :created_at_m13), (:date_m14, :headline_m14, :content_m14, :url_m14, :lang_m14, :cutoff_time_m14, :er_uri_m14, :er_is_duplicate_m14, :er_original_uri_m14, :dup_group_id_m14, :is_duplicate_m14, :er_event_uri_m14, :company_name_m14, :blogpost_links_m14, :valid_m14, :cat_reason_m14, :relevance_m14, :qc_tags_m14, :tag_reason_m14, :url_status_m14, :url_status_code_m14, :filtered_content_m14, :ads_removed_flag_m14, :removed_text_m14, :filtered_content_html_m14, :locations_m14, :supplier_location_m14, :category_id_m14, :category_name_m14, :risk_rating_m14, :risk_level_m14, :company_id_m14, :news_id_m14, :analyst_dup_m14, :analyst_cat_m14, :analyst_tag_m14, :analyst_approval_m14, :processed_m14, :analyst_risk_level_m14, :analyst_remark_m14, :analyst_cat_id_m14, :source_m14, :ingestion_date_m14, :created_at_m14), (:date_m15, :headline_m15, :content_m15, :url_m15, :lang_m15, :cutoff_time_m15, :er_uri_m15, :er_is_duplicate_m15, :er_original_uri_m15, :dup_group_id_m15, :is_duplicate_m15, :er_event_uri_m15, :company_name_m15, :blogpost_links_m15, :valid_m15, :cat_reason_m15, :relevance_m15, :qc_tags_m15, :tag_reason_m15, :url_status_m15, :url_status_code_m15, :filtered_content_m15, :ads_removed_flag_m15, :removed_text_m15, :filtered_content_html_m15, :locations_m15, :supplier_location_m15, :category_id_m15, :category_name_m15, :risk_rating_m15, :risk_level_m15, :company_id_m15, :news_id_m15, :analyst_dup_m15, :analyst_cat_m15, :analyst_tag_m15, :analyst_approval_m15, :processed_m15, :analyst_risk_level_m15, :analyst_remark_m15, :analyst_cat_id_m15, :source_m15, :ingestion_date_m15, :created_at_m15), (:date_m16, :headline_m16, :content_m16, :url_m16, :lang_m16, :cutoff_time_m16, :er_uri_m16, :er_is_duplicate_m16, :er_original_uri_m16, :dup_group_id_m16, :is_duplicate_m16, :er_event_uri_m16, :company_name_m16, :blogpost_links_m16, :valid_m16, :cat_reason_m16, :relevance_m16, :qc_tags_m16, :tag_reason_m16, :url_status_m16, :url_status_code_m16, :filtered_content_m16, :ads_removed_flag_m16, :removed_text_m16, :filtered_content_html_m16, :locations_m16, :supplier_location_m16, :category_id_m16, :category_name_m16, :risk_rating_m16, :risk_level_m16, :company_id_m16, :news_id_m16, :analyst_dup_m16, :analyst_cat_m16, :analyst_tag_m16, :analyst_approval_m16, :processed_m16, :analyst_risk_level_m16, :analyst_remark_m16, :analyst_cat_id_m16, :source_m16, :ingestion_date_m16, :created_at_m16), (:date_m17, :headline_m17, :content_m17, :url_m17, :lang_m17, :cutoff_time_m17, :er_uri_m17, :er_is_duplicate_m17, :er_original_uri_m17, :dup_group_id_m17, :is_duplicate_m17, :er_event_uri_m17, :company_name_m17, :blogpost_links_m17, :valid_m17, :cat_reason_m17, :relevance_m17, :qc_tags_m17, :tag_reason_m17, :url_status_m17, :url_status_code_m17, :filtered_content_m17, :ads_removed_flag_m17, :removed_text_m17, :filtered_content_html_m17, :locations_m17, :supplier_location_m17, :category_id_m17, :category_name_m17, :risk_rating_m17, :risk_level_m17, :company_id_m17, :news_id_m17, :analyst_dup_m17, :analyst_cat_m17, :analyst_tag_m17, :analyst_approval_m17, :processed_m17, :analyst_risk_level_m17, :analyst_remark_m17, :analyst_cat_id_m17, :source_m17, :ingestion_date_m17, :created_at_m17), (:date_m18, :headline_m18, :content_m18, :url_m18, :lang_m18, :cutoff_time_m18, :er_uri_m18, :er_is_duplicate_m18, :er_original_uri_m18, :dup_group_id_m18, :is_duplicate_m18, :er_event_uri_m18, :company_name_m18, :blogpost_links_m18, :valid_m18, :cat_reason_m18, :relevance_m18, :qc_tags_m18, :tag_reason_m18, :url_status_m18, :url_status_code_m18, :filtered_content_m18, :ads_removed_flag_m18, :removed_text_m18, :filtered_content_html_m18, :locations_m18, :supplier_location_m18, :category_id_m18, :category_name_m18, :risk_rating_m18, :risk_level_m18, :company_id_m18, :news_id_m18, :analyst_dup_m18, :analyst_cat_m18, :analyst_tag_m18, :analyst_approval_m18, :processed_m18, :analyst_risk_level_m18, :analyst_remark_m18, :analyst_cat_id_m18, :source_m18, :ingestion_date_m18, :created_at_m18), (:date_m19, :headline_m19, :content_m19, :url_m19, :lang_m19, :cutoff_time_m19, :er_uri_m19, :er_is_duplicate_m19, :er_original_uri_m19, :dup_group_id_m19, :is_duplicate_m19, :er_event_uri_m19, :company_name_m19, :blogpost_links_m19, :valid_m19, :cat_reason_m19, :relevance_m19, :qc_tags_m19, :tag_reason_m19, :url_status_m19, :url_status_code_m19, :filtered_content_m19, :ads_removed_flag_m19, :removed_text_m19, :filtered_content_html_m19, :locations_m19, :supplier_location_m19, :category_id_m19, :category_name_m19, :risk_rating_m19, :risk_level_m19, :company_id_m19, :news_id_m19, :analyst_dup_m19, :analyst_cat_m19, :analyst_tag_m19, :analyst_approval_m19, :processed_m19, :analyst_risk_level_m19, :analyst_remark_m19, :analyst_cat_id_m19, :source_m19, :ingestion_date_m19, :created_at_m19), (:date_m20, :headline_m20, :content_m20, :url_m20, :lang_m20, :cutoff_time_m20, :er_uri_m20, :er_is_duplicate_m20, :er_original_uri_m20, :dup_group_id_m20, :is_duplicate_m20, :er_event_uri_m20, :company_name_m20, :blogpost_links_m20, :valid_m20, :cat_reason_m20, :relevance_m20, :qc_tags_m20, :tag_reason_m20, :url_status_m20, :url_status_code_m20, :filtered_content_m20, :ads_removed_flag_m20, :removed_text_m20, :filtered_content_html_m20, :locations_m20, :supplier_location_m20, :category_id_m20, :category_name_m20, :risk_rating_m20, :risk_level_m20, :company_id_m20, :news_id_m20, :analyst_dup_m20, :analyst_cat_m20, :analyst_tag_m20, :analyst_approval_m20, :processed_m20, :analyst_risk_level_m20, :analyst_remark_m20, :analyst_cat_id_m20, :source_m20, :ingestion_date_m20, :created_at_m20), (:date_m21, :headline_m21, :content_m21, :url_m21, :lang_m21, :cutoff_time_m21, :er_uri_m21, :er_is_duplicate_m21, :er_original_uri_m21, :dup_group_id_m21, :is_duplicate_m21, :er_event_uri_m21, :company_name_m21, :blogpost_links_m21, :valid_m21, :cat_reason_m21, :relevance_m21, :qc_tags_m21, :tag_reason_m21, :url_status_m21, :url_status_code_m21, :filtered_content_m21, :ads_removed_flag_m21, :removed_text_m21, :filtered_content_html_m21, :locations_m21, :supplier_location_m21, :category_id_m21, :category_name_m21, :risk_rating_m21, :risk_level_m21, :company_id_m21, :news_id_m21, :analyst_dup_m21, :analyst_cat_m21, :analyst_tag_m21, :analyst_approval_m21, :processed_m21, :analyst_risk_level_m21, :analyst_remark_m21, :analyst_cat_id_m21, :source_m21, :ingestion_date_m21, :created_at_m21), (:date_m22, :headline_m22, :content_m22, :url_m22, :lang_m22, :cutoff_time_m22, :er_uri_m22, :er_is_duplicate_m22, :er_original_uri_m22, :dup_group_id_m22, :is_duplicate_m22, :er_event_uri_m22, :company_name_m22, :blogpost_links_m22, :valid_m22, :cat_reason_m22, :relevance_m22, :qc_tags_m22, :tag_reason_m22, :url_status_m22, :url_status_code_m22, :filtered_content_m22, :ads_removed_flag_m22, :removed_text_m22, :filtered_content_html_m22, :locations_m22, :supplier_location_m22, :category_id_m22, :category_name_m22, :risk_rating_m22, :risk_level_m22, :company_id_m22, :news_id_m22, :analyst_dup_m22, :analyst_cat_m22, :analyst_tag_m22, :analyst_approval_m22, :processed_m22, :analyst_risk_level_m22, :analyst_remark_m22, :analyst_cat_id_m22, :source_m22, :ingestion_date_m22, :created_at_m22), (:date_m23, :headline_m23, :content_m23, :url_m23, :lang_m23, :cutoff_time_m23, :er_uri_m23, :er_is_duplicate_m23, :er_original_uri_m23, :dup_group_id_m23, :is_duplicate_m23, :er_event_uri_m23, :company_name_m23, :blogpost_links_m23, :valid_m23, :cat_reason_m23, :relevance_m23, :qc_tags_m23, :tag_reason_m23, :url_status_m23, :url_status_code_m23, :filtered_content_m23, :ads_removed_flag_m23, :removed_text_m23, :filtered_content_html_m23, :locations_m23, :supplier_location_m23, :category_id_m23, :category_name_m23, :risk_rating_m23, :risk_level_m23, :company_id_m23, :news_id_m23, :analyst_dup_m23, :analyst_cat_m23, :analyst_tag_m23, :analyst_approval_m23, :processed_m23, :analyst_risk_level_m23, :analyst_remark_m23, :analyst_cat_id_m23, :source_m23, :ingestion_date_m23, :created_at_m23), (:date_m24, :headline_m24, :content_m24, :url_m24, :lang_m24, :cutoff_time_m24, :er_uri_m24, :er_is_duplicate_m24, :er_original_uri_m24, :dup_group_id_m24, :is_duplicate_m24, :er_event_uri_m24, :company_name_m24, :blogpost_links_m24, :valid_m24, :cat_reason_m24, :relevance_m24, :qc_tags_m24, :tag_reason_m24, :url_status_m24, :url_status_code_m24, :filtered_content_m24, :ads_removed_flag_m24, :removed_text_m24, :filtered_content_html_m24, :locations_m24, :supplier_location_m24, :category_id_m24, :category_name_m24, :risk_rating_m24, :risk_level_m24, :company_id_m24, :news_id_m24, :analyst_dup_m24, :analyst_cat_m24, :analyst_tag_m24, :analyst_approval_m24, :processed_m24, :analyst_risk_level_m24, :analyst_remark_m24, :analyst_cat_id_m24, :source_m24, :ingestion_date_m24, :created_at_m24), (:date_m25, :headline_m25, :content_m25, :url_m25, :lang_m25, :cutoff_time_m25, :er_uri_m25, :er_is_duplicate_m25, :er_original_uri_m25, :dup_group_id_m25, :is_duplicate_m25, :er_event_uri_m25, :company_name_m25, :blogpost_links_m25, :valid_m25, :cat_reason_m25, :relevance_m25, :qc_tags_m25, :tag_reason_m25, :url_status_m25, :url_status_code_m25, :filtered_content_m25, :ads_removed_flag_m25, :removed_text_m25, :filtered_content_html_m25, :locations_m25, :supplier_location_m25, :category_id_m25, :category_name_m25, :risk_rating_m25, :risk_level_m25, :company_id_m25, :news_id_m25, :analyst_dup_m25, :analyst_cat_m25, :analyst_tag_m25, :analyst_approval_m25, :processed_m25, :analyst_risk_level_m25, :analyst_remark_m25, :analyst_cat_id_m25, :source_m25, :ingestion_date_m25, :created_at_m25), (:date_m26, :headline_m26, :content_m26, :url_m26, :lang_m26, :cutoff_time_m26, :er_uri_m26, :er_is_duplicate_m26, :er_original_uri_m26, :dup_group_id_m26, :is_duplicate_m26, :er_event_uri_m26, :company_name_m26, :blogpost_links_m26, :valid_m26, :cat_reason_m26, :relevance_m26, :qc_tags_m26, :tag_reason_m26, :url_status_m26, :url_status_code_m26, :filtered_content_m26, :ads_removed_flag_m26, :removed_text_m26, :filtered_content_html_m26, :locations_m26, :supplier_location_m26, :category_id_m26, :category_name_m26, :risk_rating_m26, :risk_level_m26, :company_id_m26, :news_id_m26, :analyst_dup_m26, :analyst_cat_m26, :analyst_tag_m26, :analyst_approval_m26, :processed_m26, :analyst_risk_level_m26, :analyst_remark_m26, :analyst_cat_id_m26, :source_m26, :ingestion_date_m26, :created_at_m26), (:date_m27, :headline_m27, :content_m27, :url_m27, :lang_m27, :cutoff_time_m27, :er_uri_m27, :er_is_duplicate_m27, :er_original_uri_m27, :dup_group_id_m27, :is_duplicate_m27, :er_event_uri_m27, :company_name_m27, :blogpost_links_m27, :valid_m27, :cat_reason_m27, :relevance_m27, :qc_tags_m27, :tag_reason_m27, :url_status_m27, :url_status_code_m27, :filtered_content_m27, :ads_removed_flag_m27, :removed_text_m27, :filtered_content_html_m27, :locations_m27, :supplier_location_m27, :category_id_m27, :category_name_m27, :risk_rating_m27, :risk_level_m27, :company_id_m27, :news_id_m27, :analyst_dup_m27, :analyst_cat_m27, :analyst_tag_m27, :analyst_approval_m27, :processed_m27, :analyst_risk_level_m27, :analyst_remark_m27, :analyst_cat_id_m27, :source_m27, :ingestion_date_m27, :created_at_m27), (:date_m28, :headline_m28, :content_m28, :url_m28, :lang_m28, :cutoff_time_m28, :er_uri_m28, :er_is_duplicate_m28, :er_original_uri_m28, :dup_group_id_m28, :is_duplicate_m28, :er_event_uri_m28, :company_name_m28, :blogpost_links_m28, :valid_m28, :cat_reason_m28, :relevance_m28, :qc_tags_m28, :tag_reason_m28, :url_status_m28, :url_status_code_m28, :filtered_content_m28, :ads_removed_flag_m28, :removed_text_m28, :filtered_content_html_m28, :locations_m28, :supplier_location_m28, :category_id_m28, :category_name_m28, :risk_rating_m28, :risk_level_m28, :company_id_m28, :news_id_m28, :analyst_dup_m28, :analyst_cat_m28, :analyst_tag_m28, :analyst_approval_m28, :processed_m28, :analyst_risk_level_m28, :analyst_remark_m28, :analyst_cat_id_m28, :source_m28, :ingestion_date_m28, :created_at_m28), (:date_m29, :headline_m29, :content_m29, :url_m29, :lang_m29, :cutoff_time_m29, :er_uri_m29, :er_is_duplicate_m29, :er_original_uri_m29, :dup_group_id_m29, :is_duplicate_m29, :er_event_uri_m29, :company_name_m29, :blogpost_links_m29, :valid_m29, :cat_reason_m29, :relevance_m29, :qc_tags_m29, :tag_reason_m29, :url_status_m29, :url_status_code_m29, :filtered_content_m29, :ads_removed_flag_m29, :removed_text_m29, :filtered_content_html_m29, :locations_m29, :supplier_location_m29, :category_id_m29, :category_name_m29, :risk_rating_m29, :risk_level_m29, :company_id_m29, :news_id_m29, :analyst_dup_m29, :analyst_cat_m29, :analyst_tag_m29, :analyst_approval_m29, :processed_m29, :analyst_risk_level_m29, :analyst_remark_m29, :analyst_cat_id_m29, :source_m29, :ingestion_date_m29, :created_at_m29), (:date_m30, :headline_m30, :content_m30, :url_m30, :lang_m30, :cutoff_time_m30, :er_uri_m30, :er_is_duplicate_m30, :er_original_uri_m30, :dup_group_id_m30, :is_duplicate_m30, :er_event_uri_m30, :company_name_m30, :blogpost_links_m30, :valid_m30, :cat_reason_m30, :relevance_m30, :qc_tags_m30, :tag_reason_m30, :url_status_m30, :url_status_code_m30, :filtered_content_m30, :ads_removed_flag_m30, :removed_text_m30, :filtered_content_html_m30, :locations_m30, :supplier_location_m30, :category_id_m30, :category_name_m30, :risk_rating_m30, :risk_level_m30, :company_id_m30, :news_id_m30, :analyst_dup_m30, :analyst_cat_m30, :analyst_tag_m30, :analyst_approval_m30, :processed_m30, :analyst_risk_level_m30, :analyst_remark_m30, :analyst_cat_id_m30, :source_m30, :ingestion_date_m30, :created_at_m30), (:date_m31, :headline_m31, :content_m31, :url_m31, :lang_m31, :cutoff_time_m31, :er_uri_m31, :er_is_duplicate_m31, :er_original_uri_m31, :dup_group_id_m31, :is_duplicate_m31, :er_event_uri_m31, :company_name_m31, :blogpost_links_m31, :valid_m31, :cat_reason_m31, :relevance_m31, :qc_tags_m31, :tag_reason_m31, :url_status_m31, :url_status_code_m31, :filtered_content_m31, :ads_removed_flag_m31, :removed_text_m31, :filtered_content_html_m31, :locations_m31, :supplier_location_m31, :category_id_m31, :category_name_m31, :risk_rating_m31, :risk_level_m31, :company_id_m31, :news_id_m31, :analyst_dup_m31, :analyst_cat_m31, :analyst_tag_m31, :analyst_approval_m31, :processed_m31, :analyst_risk_level_m31, :analyst_remark_m31, :analyst_cat_id_m31, :source_m31, :ingestion_date_m31, :created_at_m31), (:date_m32, :headline_m32, :content_m32, :url_m32, :lang_m32, :cutoff_time_m32, :er_uri_m32, :er_is_duplicate_m32, :er_original_uri_m32, :dup_group_id_m32, :is_duplicate_m32, :er_event_uri_m32, :company_name_m32, :blogpost_links_m32, :valid_m32, :cat_reason_m32, :relevance_m32, :qc_tags_m32, :tag_reason_m32, :url_status_m32, :url_status_code_m32, :filtered_content_m32, :ads_removed_flag_m32, :removed_text_m32, :filtered_content_html_m32, :locations_m32, :supplier_location_m32, :category_id_m32, :category_name_m32, :risk_rating_m32, :risk_level_m32, :company_id_m32, :news_id_m32, :analyst_dup_m32, :analyst_cat_m32, :analyst_tag_m32, :analyst_approval_m32, :processed_m32, :analyst_risk_level_m32, :analyst_remark_m32, :analyst_cat_id_m32, :source_m32, :ingestion_date_m32, :created_at_m32), (:date_m33, :headline_m33, :content_m33, :url_m33, :lang_m33, :cutoff_time_m33, :er_uri_m33, :er_is_duplicate_m33, :er_original_uri_m33, :dup_group_id_m33, :is_duplicate_m33, :er_event_uri_m33, :company_name_m33, :blogpost_links_m33, :valid_m33, :cat_reason_m33, :relevance_m33, :qc_tags_m33, :tag_reason_m33, :url_status_m33, :url_status_code_m33, :filtered_content_m33, :ads_removed_flag_m33, :removed_text_m33, :filtered_content_html_m33, :locations_m33, :supplier_location_m33, :category_id_m33, :category_name_m33, :risk_rating_m33, :risk_level_m33, :company_id_m33, :news_id_m33, :analyst_dup_m33, :analyst_cat_m33, :analyst_tag_m33, :analyst_approval_m33, :processed_m33, :analyst_risk_level_m33, :analyst_remark_m33, :analyst_cat_id_m33, :source_m33, :ingestion_date_m33, :created_at_m33), (:date_m34, :headline_m34, :content_m34, :url_m34, :lang_m34, :cutoff_time_m34, :er_uri_m34, :er_is_duplicate_m34, :er_original_uri_m34, :dup_group_id_m34, :is_duplicate_m34, :er_event_uri_m34, :company_name_m34, :blogpost_links_m34, :valid_m34, :cat_reason_m34, :relevance_m34, :qc_tags_m34, :tag_reason_m34, :url_status_m34, :url_status_code_m34, :filtered_content_m34, :ads_removed_flag_m34, :removed_text_m34, :filtered_content_html_m34, :locations_m34, :supplier_location_m34, :category_id_m34, :category_name_m34, :risk_rating_m34, :risk_level_m34, :company_id_m34, :news_id_m34, :analyst_dup_m34, :analyst_cat_m34, :analyst_tag_m34, :analyst_approval_m34, :processed_m34, :analyst_risk_level_m34, :analyst_remark_m34, :analyst_cat_id_m34, :source_m34, :ingestion_date_m34, :created_at_m34), (:date_m35, :headline_m35, :content_m35, :url_m35, :lang_m35, :cutoff_time_m35, :er_uri_m35, :er_is_duplicate_m35, :er_original_uri_m35, :dup_group_id_m35, :is_duplicate_m35, :er_event_uri_m35, :company_name_m35, :blogpost_links_m35, :valid_m35, :cat_reason_m35, :relevance_m35, :qc_tags_m35, :tag_reason_m35, :url_status_m35, :url_status_code_m35, :filtered_content_m35, :ads_removed_flag_m35, :removed_text_m35, :filtered_content_html_m35, :locations_m35, :supplier_location_m35, :category_id_m35, :category_name_m35, :risk_rating_m35, :risk_level_m35, :company_id_m35, :news_id_m35, :analyst_dup_m35, :analyst_cat_m35, :analyst_tag_m35, :analyst_approval_m35, :processed_m35, :analyst_risk_level_m35, :analyst_remark_m35, :analyst_cat_id_m35, :source_m35, :ingestion_date_m35, :created_at_m35), (:date_m36, :headline_m36, :content_m36, :url_m36, :lang_m36, :cutoff_time_m36, :er_uri_m36, :er_is_duplicate_m36, :er_original_uri_m36, :dup_group_id_m36, :is_duplicate_m36, :er_event_uri_m36, :company_name_m36, :blogpost_links_m36, :valid_m36, :cat_reason_m36, :relevance_m36, :qc_tags_m36, :tag_reason_m36, :url_status_m36, :url_status_code_m36, :filtered_content_m36, :ads_removed_flag_m36, :removed_text_m36, :filtered_content_html_m36, :locations_m36, :supplier_location_m36, :category_id_m36, :category_name_m36, :risk_rating_m36, :risk_level_m36, :company_id_m36, :news_id_m36, :analyst_dup_m36, :analyst_cat_m36, :analyst_tag_m36, :analyst_approval_m36, :processed_m36, :analyst_risk_level_m36, :analyst_remark_m36, :analyst_cat_id_m36, :source_m36, :ingestion_date_m36, :created_at_m36), (:date_m37, :headline_m37, :content_m37, :url_m37, :lang_m37, :cutoff_time_m37, :er_uri_m37, :er_is_duplicate_m37, :er_original_uri_m37, :dup_group_id_m37, :is_duplicate_m37, :er_event_uri_m37, :company_name_m37, :blogpost_links_m37, :valid_m37, :cat_reason_m37, :relevance_m37, :qc_tags_m37, :tag_reason_m37, :url_status_m37, :url_status_code_m37, :filtered_content_m37, :ads_removed_flag_m37, :removed_text_m37, :filtered_content_html_m37, :locations_m37, :supplier_location_m37, :category_id_m37, :category_name_m37, :risk_rating_m37, :risk_level_m37, :company_id_m37, :news_id_m37, :analyst_dup_m37, :analyst_cat_m37, :analyst_tag_m37, :analyst_approval_m37, :processed_m37, :analyst_risk_level_m37, :analyst_remark_m37, :analyst_cat_id_m37, :source_m37, :ingestion_date_m37, :created_at_m37), (:date_m38, :headline_m38, :content_m38, :url_m38, :lang_m38, :cutoff_time_m38, :er_uri_m38, :er_is_duplicate_m38, :er_original_uri_m38, :dup_group_id_m38, :is_duplicate_m38, :er_event_uri_m38, :company_name_m38, :blogpost_links_m38, :valid_m38, :cat_reason_m38, :relevance_m38, :qc_tags_m38, :tag_reason_m38, :url_status_m38, :url_status_code_m38, :filtered_content_m38, :ads_removed_flag_m38, :removed_text_m38, :filtered_content_html_m38, :locations_m38, :supplier_location_m38, :category_id_m38, :category_name_m38, :risk_rating_m38, :risk_level_m38, :company_id_m38, :news_id_m38, :analyst_dup_m38, :analyst_cat_m38, :analyst_tag_m38, :analyst_approval_m38, :processed_m38, :analyst_risk_level_m38, :analyst_remark_m38, :analyst_cat_id_m38, :source_m38, :ingestion_date_m38, :created_at_m38), (:date_m39, :headline_m39, :content_m39, :url_m39, :lang_m39, :cutoff_time_m39, :er_uri_m39, :er_is_duplicate_m39, :er_original_uri_m39, :dup_group_id_m39, :is_duplicate_m39, :er_event_uri_m39, :company_name_m39, :blogpost_links_m39, :valid_m39, :cat_reason_m39, :relevance_m39, :qc_tags_m39, :tag_reason_m39, :url_status_m39, :url_status_code_m39, :filtered_content_m39, :ads_removed_flag_m39, :removed_text_m39, :filtered_content_html_m39, :locations_m39, :supplier_location_m39, :category_id_m39, :category_name_m39, :risk_rating_m39, :risk_level_m39, :company_id_m39, :news_id_m39, :analyst_dup_m39, :analyst_cat_m39, :analyst_tag_m39, :analyst_approval_m39, :processed_m39, :analyst_risk_level_m39, :analyst_remark_m39, :analyst_cat_id_m39, :source_m39, :ingestion_date_m39, :created_at_m39), (:date_m40, :headline_m40, :content_m40, :url_m40, :lang_m40, :cutoff_time_m40, :er_uri_m40, :er_is_duplicate_m40, :er_original_uri_m40, :dup_group_id_m40, :is_duplicate_m40, :er_event_uri_m40, :company_name_m40, :blogpost_links_m40, :valid_m40, :cat_reason_m40, :relevance_m40, :qc_tags_m40, :tag_reason_m40, :url_status_m40, :url_status_code_m40, :filtered_content_m40, :ads_removed_flag_m40, :removed_text_m40, :filtered_content_html_m40, :locations_m40, :supplier_location_m40, :category_id_m40, :category_name_m40, :risk_rating_m40, :risk_level_m40, :company_id_m40, :news_id_m40, :analyst_dup_m40, :analyst_cat_m40, :analyst_tag_m40, :analyst_approval_m40</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>464</v>
+      </c>
+      <c r="G81" t="n">
+        <v>150</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>273</v>
+      </c>
+      <c r="J81" t="n">
+        <v>191</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>20260203_140008</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2026-02-03 14:00:08</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2026-02-03 14:02:43</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Execution failed on sql 'INSERT INTO news (date, headline, content, url, lang, cutoff_time, er_uri, er_is_duplicate, er_original_uri, dup_group_id, is_duplicate, er_event_uri, company_name, blogpost_links, valid, cat_reason, relevance, qc_tags, tag_reason, url_status, url_status_code, filtered_content, ads_removed_flag, removed_text, filtered_content_html, locations, supplier_location, category_id, category_name, risk_rating, risk_level, company_id, news_id, analyst_dup, analyst_cat, analyst_tag, analyst_approval, processed, analyst_risk_level, analyst_remark, analyst_cat_id, source, ingestion_date, created_at) VALUES (:date_m0, :headline_m0, :content_m0, :url_m0, :lang_m0, :cutoff_time_m0, :er_uri_m0, :er_is_duplicate_m0, :er_original_uri_m0, :dup_group_id_m0, :is_duplicate_m0, :er_event_uri_m0, :company_name_m0, :blogpost_links_m0, :valid_m0, :cat_reason_m0, :relevance_m0, :qc_tags_m0, :tag_reason_m0, :url_status_m0, :url_status_code_m0, :filtered_content_m0, :ads_removed_flag_m0, :removed_text_m0, :filtered_content_html_m0, :locations_m0, :supplier_location_m0, :category_id_m0, :category_name_m0, :risk_rating_m0, :risk_level_m0, :company_id_m0, :news_id_m0, :analyst_dup_m0, :analyst_cat_m0, :analyst_tag_m0, :analyst_approval_m0, :processed_m0, :analyst_risk_level_m0, :analyst_remark_m0, :analyst_cat_id_m0, :source_m0, :ingestion_date_m0, :created_at_m0), (:date_m1, :headline_m1, :content_m1, :url_m1, :lang_m1, :cutoff_time_m1, :er_uri_m1, :er_is_duplicate_m1, :er_original_uri_m1, :dup_group_id_m1, :is_duplicate_m1, :er_event_uri_m1, :company_name_m1, :blogpost_links_m1, :valid_m1, :cat_reason_m1, :relevance_m1, :qc_tags_m1, :tag_reason_m1, :url_status_m1, :url_status_code_m1, :filtered_content_m1, :ads_removed_flag_m1, :removed_text_m1, :filtered_content_html_m1, :locations_m1, :supplier_location_m1, :category_id_m1, :category_name_m1, :risk_rating_m1, :risk_level_m1, :company_id_m1, :news_id_m1, :analyst_dup_m1, :analyst_cat_m1, :analyst_tag_m1, :analyst_approval_m1, :processed_m1, :analyst_risk_level_m1, :analyst_remark_m1, :analyst_cat_id_m1, :source_m1, :ingestion_date_m1, :created_at_m1), (:date_m2, :headline_m2, :content_m2, :url_m2, :lang_m2, :cutoff_time_m2, :er_uri_m2, :er_is_duplicate_m2, :er_original_uri_m2, :dup_group_id_m2, :is_duplicate_m2, :er_event_uri_m2, :company_name_m2, :blogpost_links_m2, :valid_m2, :cat_reason_m2, :relevance_m2, :qc_tags_m2, :tag_reason_m2, :url_status_m2, :url_status_code_m2, :filtered_content_m2, :ads_removed_flag_m2, :removed_text_m2, :filtered_content_html_m2, :locations_m2, :supplier_location_m2, :category_id_m2, :category_name_m2, :risk_rating_m2, :risk_level_m2, :company_id_m2, :news_id_m2, :analyst_dup_m2, :analyst_cat_m2, :analyst_tag_m2, :analyst_approval_m2, :processed_m2, :analyst_risk_level_m2, :analyst_remark_m2, :analyst_cat_id_m2, :source_m2, :ingestion_date_m2, :created_at_m2), (:date_m3, :headline_m3, :content_m3, :url_m3, :lang_m3, :cutoff_time_m3, :er_uri_m3, :er_is_duplicate_m3, :er_original_uri_m3, :dup_group_id_m3, :is_duplicate_m3, :er_event_uri_m3, :company_name_m3, :blogpost_links_m3, :valid_m3, :cat_reason_m3, :relevance_m3, :qc_tags_m3, :tag_reason_m3, :url_status_m3, :url_status_code_m3, :filtered_content_m3, :ads_removed_flag_m3, :removed_text_m3, :filtered_content_html_m3, :locations_m3, :supplier_location_m3, :category_id_m3, :category_name_m3, :risk_rating_m3, :risk_level_m3, :company_id_m3, :news_id_m3, :analyst_dup_m3, :analyst_cat_m3, :analyst_tag_m3, :analyst_approval_m3, :processed_m3, :analyst_risk_level_m3, :analyst_remark_m3, :analyst_cat_id_m3, :source_m3, :ingestion_date_m3, :created_at_m3), (:date_m4, :headline_m4, :content_m4, :url_m4, :lang_m4, :cutoff_time_m4, :er_uri_m4, :er_is_duplicate_m4, :er_original_uri_m4, :dup_group_id_m4, :is_duplicate_m4, :er_event_uri_m4, :company_name_m4, :blogpost_links_m4, :valid_m4, :cat_reason_m4, :relevance_m4, :qc_tags_m4, :tag_reason_m4, :url_status_m4, :url_status_code_m4, :filtered_content_m4, :ads_removed_flag_m4, :removed_text_m4, :filtered_content_html_m4, :locations_m4, :supplier_location_m4, :category_id_m4, :category_name_m4, :risk_rating_m4, :risk_level_m4, :company_id_m4, :news_id_m4, :analyst_dup_m4, :analyst_cat_m4, :analyst_tag_m4, :analyst_approval_m4, :processed_m4, :analyst_risk_level_m4, :analyst_remark_m4, :analyst_cat_id_m4, :source_m4, :ingestion_date_m4, :created_at_m4), (:date_m5, :headline_m5, :content_m5, :url_m5, :lang_m5, :cutoff_time_m5, :er_uri_m5, :er_is_duplicate_m5, :er_original_uri_m5, :dup_group_id_m5, :is_duplicate_m5, :er_event_uri_m5, :company_name_m5, :blogpost_links_m5, :valid_m5, :cat_reason_m5, :relevance_m5, :qc_tags_m5, :tag_reason_m5, :url_status_m5, :url_status_code_m5, :filtered_content_m5, :ads_removed_flag_m5, :removed_text_m5, :filtered_content_html_m5, :locations_m5, :supplier_location_m5, :category_id_m5, :category_name_m5, :risk_rating_m5, :risk_level_m5, :company_id_m5, :news_id_m5, :analyst_dup_m5, :analyst_cat_m5, :analyst_tag_m5, :analyst_approval_m5, :processed_m5, :analyst_risk_level_m5, :analyst_remark_m5, :analyst_cat_id_m5, :source_m5, :ingestion_date_m5, :created_at_m5), (:date_m6, :headline_m6, :content_m6, :url_m6, :lang_m6, :cutoff_time_m6, :er_uri_m6, :er_is_duplicate_m6, :er_original_uri_m6, :dup_group_id_m6, :is_duplicate_m6, :er_event_uri_m6, :company_name_m6, :blogpost_links_m6, :valid_m6, :cat_reason_m6, :relevance_m6, :qc_tags_m6, :tag_reason_m6, :url_status_m6, :url_status_code_m6, :filtered_content_m6, :ads_removed_flag_m6, :removed_text_m6, :filtered_content_html_m6, :locations_m6, :supplier_location_m6, :category_id_m6, :category_name_m6, :risk_rating_m6, :risk_level_m6, :company_id_m6, :news_id_m6, :analyst_dup_m6, :analyst_cat_m6, :analyst_tag_m6, :analyst_approval_m6, :processed_m6, :analyst_risk_level_m6, :analyst_remark_m6, :analyst_cat_id_m6, :source_m6, :ingestion_date_m6, :created_at_m6), (:date_m7, :headline_m7, :content_m7, :url_m7, :lang_m7, :cutoff_time_m7, :er_uri_m7, :er_is_duplicate_m7, :er_original_uri_m7, :dup_group_id_m7, :is_duplicate_m7, :er_event_uri_m7, :company_name_m7, :blogpost_links_m7, :valid_m7, :cat_reason_m7, :relevance_m7, :qc_tags_m7, :tag_reason_m7, :url_status_m7, :url_status_code_m7, :filtered_content_m7, :ads_removed_flag_m7, :removed_text_m7, :filtered_content_html_m7, :locations_m7, :supplier_location_m7, :category_id_m7, :category_name_m7, :risk_rating_m7, :risk_level_m7, :company_id_m7, :news_id_m7, :analyst_dup_m7, :analyst_cat_m7, :analyst_tag_m7, :analyst_approval_m7, :processed_m7, :analyst_risk_level_m7, :analyst_remark_m7, :analyst_cat_id_m7, :source_m7, :ingestion_date_m7, :created_at_m7), (:date_m8, :headline_m8, :content_m8, :url_m8, :lang_m8, :cutoff_time_m8, :er_uri_m8, :er_is_duplicate_m8, :er_original_uri_m8, :dup_group_id_m8, :is_duplicate_m8, :er_event_uri_m8, :company_name_m8, :blogpost_links_m8, :valid_m8, :cat_reason_m8, :relevance_m8, :qc_tags_m8, :tag_reason_m8, :url_status_m8, :url_status_code_m8, :filtered_content_m8, :ads_removed_flag_m8, :removed_text_m8, :filtered_content_html_m8, :locations_m8, :supplier_location_m8, :category_id_m8, :category_name_m8, :risk_rating_m8, :risk_level_m8, :company_id_m8, :news_id_m8, :analyst_dup_m8, :analyst_cat_m8, :analyst_tag_m8, :analyst_approval_m8, :processed_m8, :analyst_risk_level_m8, :analyst_remark_m8, :analyst_cat_id_m8, :source_m8, :ingestion_date_m8, :created_at_m8), (:date_m9, :headline_m9, :content_m9, :url_m9, :lang_m9, :cutoff_time_m9, :er_uri_m9, :er_is_duplicate_m9, :er_original_uri_m9, :dup_group_id_m9, :is_duplicate_m9, :er_event_uri_m9, :company_name_m9, :blogpost_links_m9, :valid_m9, :cat_reason_m9, :relevance_m9, :qc_tags_m9, :tag_reason_m9, :url_status_m9, :url_status_code_m9, :filtered_content_m9, :ads_removed_flag_m9, :removed_text_m9, :filtered_content_html_m9, :locations_m9, :supplier_location_m9, :category_id_m9, :category_name_m9, :risk_rating_m9, :risk_level_m9, :company_id_m9, :news_id_m9, :analyst_dup_m9, :analyst_cat_m9, :analyst_tag_m9, :analyst_approval_m9, :processed_m9, :analyst_risk_level_m9, :analyst_remark_m9, :analyst_cat_id_m9, :source_m9, :ingestion_date_m9, :created_at_m9), (:date_m10, :headline_m10, :content_m10, :url_m10, :lang_m10, :cutoff_time_m10, :er_uri_m10, :er_is_duplicate_m10, :er_original_uri_m10, :dup_group_id_m10, :is_duplicate_m10, :er_event_uri_m10, :company_name_m10, :blogpost_links_m10, :valid_m10, :cat_reason_m10, :relevance_m10, :qc_tags_m10, :tag_reason_m10, :url_status_m10, :url_status_code_m10, :filtered_content_m10, :ads_removed_flag_m10, :removed_text_m10, :filtered_content_html_m10, :locations_m10, :supplier_location_m10, :category_id_m10, :category_name_m10, :risk_rating_m10, :risk_level_m10, :company_id_m10, :news_id_m10, :analyst_dup_m10, :analyst_cat_m10, :analyst_tag_m10, :analyst_approval_m10, :processed_m10, :analyst_risk_level_m10, :analyst_remark_m10, :analyst_cat_id_m10, :source_m10, :ingestion_date_m10, :created_at_m10), (:date_m11, :headline_m11, :content_m11, :url_m11, :lang_m11, :cutoff_time_m11, :er_uri_m11, :er_is_duplicate_m11, :er_original_uri_m11, :dup_group_id_m11, :is_duplicate_m11, :er_event_uri_m11, :company_name_m11, :blogpost_links_m11, :valid_m11, :cat_reason_m11, :relevance_m11, :qc_tags_m11, :tag_reason_m11, :url_status_m11, :url_status_code_m11, :filtered_content_m11, :ads_removed_flag_m11, :removed_text_m11, :filtered_content_html_m11, :locations_m11, :supplier_location_m11, :category_id_m11, :category_name_m11, :risk_rating_m11, :risk_level_m11, :company_id_m11, :news_id_m11, :analyst_dup_m11, :analyst_cat_m11, :analyst_tag_m11, :analyst_approval_m11, :processed_m11, :analyst_risk_level_m11, :analyst_remark_m11, :analyst_cat_id_m11, :source_m11, :ingestion_date_m11, :created_at_m11), (:date_m12, :headline_m12, :content_m12, :url_m12, :lang_m12, :cutoff_time_m12, :er_uri_m12, :er_is_duplicate_m12, :er_original_uri_m12, :dup_group_id_m12, :is_duplicate_m12, :er_event_uri_m12, :company_name_m12, :blogpost_links_m12, :valid_m12, :cat_reason_m12, :relevance_m12, :qc_tags_m12, :tag_reason_m12, :url_status_m12, :url_status_code_m12, :filtered_content_m12, :ads_removed_flag_m12, :removed_text_m12, :filtered_content_html_m12, :locations_m12, :supplier_location_m12, :category_id_m12, :category_name_m12, :risk_rating_m12, :risk_level_m12, :company_id_m12, :news_id_m12, :analyst_dup_m12, :analyst_cat_m12, :analyst_tag_m12, :analyst_approval_m12, :processed_m12, :analyst_risk_level_m12, :analyst_remark_m12, :analyst_cat_id_m12, :source_m12, :ingestion_date_m12, :created_at_m12), (:date_m13, :headline_m13, :content_m13, :url_m13, :lang_m13, :cutoff_time_m13, :er_uri_m13, :er_is_duplicate_m13, :er_original_uri_m13, :dup_group_id_m13, :is_duplicate_m13, :er_event_uri_m13, :company_name_m13, :blogpost_links_m13, :valid_m13, :cat_reason_m13, :relevance_m13, :qc_tags_m13, :tag_reason_m13, :url_status_m13, :url_status_code_m13, :filtered_content_m13, :ads_removed_flag_m13, :removed_text_m13, :filtered_content_html_m13, :locations_m13, :supplier_location_m13, :category_id_m13, :category_name_m13, :risk_rating_m13, :risk_level_m13, :company_id_m13, :news_id_m13, :analyst_dup_m13, :analyst_cat_m13, :analyst_tag_m13, :analyst_approval_m13, :processed_m13, :analyst_risk_level_m13, :analyst_remark_m13, :analyst_cat_id_m13, :source_m13, :ingestion_date_m13, :created_at_m13), (:date_m14, :headline_m14, :content_m14, :url_m14, :lang_m14, :cutoff_time_m14, :er_uri_m14, :er_is_duplicate_m14, :er_original_uri_m14, :dup_group_id_m14, :is_duplicate_m14, :er_event_uri_m14, :company_name_m14, :blogpost_links_m14, :valid_m14, :cat_reason_m14, :relevance_m14, :qc_tags_m14, :tag_reason_m14, :url_status_m14, :url_status_code_m14, :filtered_content_m14, :ads_removed_flag_m14, :removed_text_m14, :filtered_content_html_m14, :locations_m14, :supplier_location_m14, :category_id_m14, :category_name_m14, :risk_rating_m14, :risk_level_m14, :company_id_m14, :news_id_m14, :analyst_dup_m14, :analyst_cat_m14, :analyst_tag_m14, :analyst_approval_m14, :processed_m14, :analyst_risk_level_m14, :analyst_remark_m14, :analyst_cat_id_m14, :source_m14, :ingestion_date_m14, :created_at_m14)': (psycopg2.errors.UndefinedColumn) column "er_uri" of relation "news" does not exist
+LINE 1: ...(date, headline, content, url, lang, cutoff_time, er_uri, er...
+                                                             ^
+[SQL: INSERT INTO news (date, headline, content, url, lang, cutoff_time, er_uri, er_is_duplicate, er_original_uri, dup_group_id, is_duplicate, er_event_uri, company_name, blogpost_links, valid, cat_reason, relevance, qc_tags, tag_reason, url_status, url_status_code, filtered_content, ads_removed_flag, removed_text, filtered_content_html, locations, supplier_location, category_id, category_name, risk_rating, risk_level, company_id, news_id, analyst_dup, analyst_cat, analyst_tag, analyst_approval, processed, analyst_risk_level, analyst_remark, analyst_cat_id, source, ingestion_date, created_at) VALUES (%(date_m0)s, %(headline_m0)s, %(content_m0)s, %(url_m0)s, %(lang_m0)s, %(cutoff_time_m0)s, %(er_uri_m0)s, %(er_is_duplicate_m0)s, %(er_original_uri_m0)s, %(dup_group_id_m0)s, %(is_duplicate_m0)s, %(er_event_uri_m0)s, %(company_name_m0)s, %(blogpost_links_m0)s, %(valid_m0)s, %(cat_reason_m0)s, %(relevance_m0)s, %(qc_tags_m0)s, %(tag_reason_m0)s, %(url_status_m0)s, %(url_status_code_m0)s, %(filtered_content_m0)s, %(ads_removed_flag_m0)s, %(removed_text_m0)s, %(filtered_content_html_m0)s, %(locations_m0)s, %(supplier_location_m0)s, %(category_id_m0)s, %(category_name_m0)s, %(risk_rating_m0)s, %(risk_level_m0)s, %(company_id_m0)s, %(news_id_m0)s, %(analyst_dup_m0)s, %(analyst_cat_m0)s, %(analyst_tag_m0)s, %(analyst_approval_m0)s, %(processed_m0)s, %(analyst_risk_level_m0)s, %(analyst_remark_m0)s, %(analyst_cat_id_m0)s, %(source_m0)s, %(ingestion_date_m0)s, %(created_at_m0)s), (%(date_m1)s, %(headline_m1)s, %(content_m1)s, %(url_m1)s, %(lang_m1)s, %(cutoff_time_m1)s, %(er_uri_m1)s, %(er_is_duplicate_m1)s, %(er_original_uri_m1)s, %(dup_group_id_m1)s, %(is_duplicate_m1)s, %(er_event_uri_m1)s, %(company_name_m1)s, %(blogpost_links_m1)s, %(valid_m1)s, %(cat_reason_m1)s, %(relevance_m1)s, %(qc_tags_m1)s, %(tag_reason_m1)s, %(url_status_m1)s, %(url_status_code_m1)s, %(filtered_content_m1)s, %(ads_removed_flag_m1)s, %(removed_text_m1)s, %(filtered_content_html_m1)s, %(locations_m1)s, %(supplier_location_m1)s, %(category_id_m1)s, %(category_name_m1)s, %(risk_rating_m1)s, %(risk_level_m1)s, %(company_id_m1)s, %(news_id_m1)s, %(analyst_dup_m1)s, %(analyst_cat_m1)s, %(analyst_tag_m1)s, %(analyst_approval_m1)s, %(processed_m1)s, %(analyst_risk_level_m1)s, %(analyst_remark_m1)s, %(analyst_cat_id_m1)s, %(source_m1)s, %(ingestion_date_m1)s, %(created_at_m1)s), (%(date_m2)s, %(headline_m2)s, %(content_m2)s, %(url_m2)s, %(lang_m2)s, %(cutoff_time_m2)s, %(er_uri_m2)s, %(er_is_duplicate_m2)s, %(er_original_uri_m2)s, %(dup_group_id_m2)s, %(is_duplicate_m2)s, %(er_event_uri_m2)s, %(company_name_m2)s, %(blogpost_links_m2)s, %(valid_m2)s, %(cat_reason_m2)s, %(relevance_m2)s, %(qc_tags_m2)s, %(tag_reason_m2)s, %(url_status_m2)s, %(url_status_code_m2)s, %(filtered_content_m2)s, %(ads_removed_flag_m2)s, %(removed_text_m2)s, %(filtered_content_html_m2)s, %(locations_m2)s, %(supplier_location_m2)s, %(category_id_m2)s, %(category_name_m2)s, %(risk_rating_m2)s, %(risk_level_m2)s, %(company_id_m2)s, %(news_id_m2)s, %(analyst_dup_m2)s, %(analyst_cat_m2)s, %(analyst_tag_m2)s, %(analyst_approval_m2)s, %(processed_m2)s, %(analyst_risk_level_m2)s, %(analyst_remark_m2)s, %(analyst_cat_id_m2)s, %(source_m2)s, %(ingestion_date_m2)s, %(created_at_m2)s), (%(date_m3)s, %(headline_m3)s, %(content_m3)s, %(url_m3)s, %(lang_m3)s, %(cutoff_time_m3)s, %(er_uri_m3)s, %(er_is_duplicate_m3)s, %(er_original_uri_m3)s, %(dup_group_id_m3)s, %(is_duplicate_m3)s, %(er_event_uri_m3)s, %(company_name_m3)s, %(blogpost_links_m3)s, %(valid_m3)s, %(cat_reason_m3)s, %(relevance_m3)s, %(qc_tags_m3)s, %(tag_reason_m3)s, %(url_status_m3)s, %(url_status_code_m3)s, %(filtered_content_m3)s, %(ads_removed_flag_m3)s, %(removed_text_m3)s, %(filtered_content_html_m3)s, %(locations_m3)s, %(supplier_location_m3)s, %(category_id_m3)s, %(category_name_m3)s, %(risk_rating_m3)s, %(risk_level_m3)s, %(company_id_m3)s, %(news_id_m3)s, %(analyst_dup_m3)s, %(analyst_cat_m3)s, %(analyst_tag_m3)s, %(analyst_approval_m3)s, %(processed_m3)s, %(analyst_risk_level_m3)s, %(analyst_remark_m3)s, %(analyst_cat_id_m3)s, %(source_m3)s, %(ingestion_date_m3)s, %(created_at_m3)s), (%(date_m4)s, %(headline_m4)s, %(content_m4)s, %(url_m4)s, %(lang_m4)s, %(cutoff_time_m4)s, %(er_uri_m4)s, %(er_is_duplicate_m4)s, %(er_original_uri_m4)s, %(dup_group_id_m4)s, %(is_duplicate_m4)s, %(er_event_uri_m4)s, %(company_name_m4)s, %(blogpost_links_m4)s, %(valid_m4)s, %(cat_reason_m4)s, %(relevance_m4)s, %(qc_tags_m4)s, %(tag_reason_m4)s, %(url_status_m4)s, %(url_status_code_m4)s, %(filtered_content_m4)s, %(ads_removed_flag_m4)s, %(removed_text_m4)s, %(filtered_content_html_m4)s, %(locations_m4)s, %(supplier_location_m4)s, %(category_id_m4)s, %(category_name_m4)s, %(risk_rating_m4)s, %(risk_level_m4)s, %(company_id_m4)s, %(news_id_m4)s, %(analyst_dup_m4)s, %(analyst_cat_m4)s, %(analyst_tag_m4)s, %(analyst_approval_m4)s, %(processed_m4)s, %(analyst_risk_level_m4)s, %(analyst_remark_m4)s, %(analyst_cat_id_m4)s, %(source_m4)s, %(ingestion_date_m4)s, %(created_at_m4)s), (%(date_m5)s, %(headline_m5)s, %(content_m5)s, %(url_m5)s, %(lang_m5)s, %(cutoff_time_m5)s, %(er_uri_m5)s, %(er_is_duplicate_m5)s, %(er_original_uri_m5)s, %(dup_group_id_m5)s, %(is_duplicate_m5)s, %(er_event_uri_m5)s, %(company_name_m5)s, %(blogpost_links_m5)s, %(valid_m5)s, %(cat_reason_m5)s, %(relevance_m5)s, %(qc_tags_m5)s, %(tag_reason_m5)s, %(url_status_m5)s, %(url_status_code_m5)s, %(filtered_content_m5)s, %(ads_removed_flag_m5)s, %(removed_text_m5)s, %(filtered_content_html_m5)s, %(locations_m5)s, %(supplier_location_m5)s, %(category_id_m5)s, %(category_name_m5)s, %(risk_rating_m5)s, %(risk_level_m5)s, %(company_id_m5)s, %(news_id_m5)s, %(analyst_dup_m5)s, %(analyst_cat_m5)s, %(analyst_tag_m5)s, %(analyst_approval_m5)s, %(processed_m5)s, %(analyst_risk_level_m5)s, %(analyst_remark_m5)s, %(analyst_cat_id_m5)s, %(source_m5)s, %(ingestion_date_m5)s, %(created_at_m5)s), (%(date_m6)s, %(headline_m6)s, %(content_m6)s, %(url_m6)s, %(lang_m6)s, %(cutoff_time_m6)s, %(er_uri_m6)s, %(er_is_duplicate_m6)s, %(er_original_uri_m6)s, %(dup_group_id_m6)s, %(is_duplicate_m6)s, %(er_event_uri_m6)s, %(company_name_m6)s, %(blogpost_links_m6)s, %(valid_m6)s, %(cat_reason_m6)s, %(relevance_m6)s, %(qc_tags_m6)s, %(tag_reason_m6)s, %(url_status_m6)s, %(url_status_code_m6)s, %(filtered_content_m6)s, %(ads_removed_flag_m6)s, %(removed_text_m6)s, %(filtered_content_html_m6)s, %(locations_m6)s, %(supplier_location_m6)s, %(category_id_m6)s, %(category_name_m6)s, %(risk_rating_m6)s, %(risk_level_m6)s, %(company_id_m6)s, %(news_id_m6)s, %(analyst_dup_m6)s, %(analyst_cat_m6)s, %(analyst_tag_m6)s, %(analyst_approval_m6)s, %(processed_m6)s, %(analyst_risk_level_m6)s, %(analyst_remark_m6)s, %(analyst_cat_id_m6)s, %(source_m6)s, %(ingestion_date_m6)s, %(created_at_m6)s), (%(date_m7)s, %(headline_m7)s, %(content_m7)s, %(url_m7)s, %(lang_m7)s, %(cutoff_time_m7)s, %(er_uri_m7)s, %(er_is_duplicate_m7)s, %(er_original_uri_m7)s, %(dup_group_id_m7)s, %(is_duplicate_m7)s, %(er_event_uri_m7)s, %(company_name_m7)s, %(blogpost_links_m7)s, %(valid_m7)s, %(cat_reason_m7)s, %(relevance_m7)s, %(qc_tags_m7)s, %(tag_reason_m7)s, %(url_status_m7)s, %(url_status_code_m7)s, %(filtered_content_m7)s, %(ads_removed_flag_m7)s, %(removed_text_m7)s, %(filtered_content_html_m7)s, %(locations_m7)s, %(supplier_location_m7)s, %(category_id_m7)s, %(category_name_m7)s, %(risk_rating_m7)s, %(risk_level_m7)s, %(company_id_m7)s, %(news_id_m7)s, %(analyst_dup_m7)s, %(analyst_cat_m7)s, %(analyst_tag_m7)s, %(analyst_approval_m7)s, %(processed_m7)s, %(analyst_risk_level_m7)s, %(analyst_remark_m7)s, %(analyst_cat_id_m7)s, %(source_m7)s, %(ingestion_date_m7)s, %(created_at_m7)s), (%(date_m8)s, %(headline_m8)s, %(content_m8)s, %(url_m8)s, %(lang_m8)s, %(cutoff_time_m8)s, %(er_uri_m8)s, %(er_is_duplicate_m8)s, %(er_original_uri_m8)s, %(dup_group_id_m8)s, %(is_duplicate_m8)s, %(er_event_uri_m8)s, %(company_name_m8)s, %(blogpost_links_m8)s, %(valid_m8)s, %(cat_reason_m8)s, %(relevance_m8)s, %(qc_tags_m8)s, %(tag_reason_m8)s, %(url_status_m8)s, %(url_status_code_m8)s, %(filtered_content_m8)s, %(ads_removed_flag_m8)s, %(removed_text_m8)s, %(filtered_content_html_m8)s, %(locations_m8)s, %(supplier_location_m8)s, %(category_id_m8)s, %(category_name_m8)s, %(risk_rating_m8)s, %(risk_level_m8)s, %(company_id_m8)s, %(news_id_m8)s, %(analyst_dup_m8)s, %(analyst_cat_m8)s, %(analyst_tag_m8)s, %(analyst_approval_m8)s, %(processed_m8)s, %(analyst_risk_level_m8)s, %(analyst_remark_m8)s, %(analyst_cat_id_m8)s, %(source_m8)s, %(ingestion_date_m8)s, %(created_at_m8)s), (%(date_m9)s, %(headline_m9)s, %(content_m9)s, %(url_m9)s, %(lang_m9)s, %(cutoff_time_m9)s, %(er_uri_m9)s, %(er_is_duplicate_m9)s, %(er_original_uri_m9)s, %(dup_group_id_m9)s, %(is_duplicate_m9)s, %(er_event_uri_m9)s, %(company_name_m9)s, %(blogpost_links_m9)s, %(valid_m9)s, %(cat_reason_m9)s, %(relevance_m9)s, %(qc_tags_m9)s, %(tag_reason_m9)s, %(url_status_m9)s, %(url_status_code_m9)s, %(filtered_content_m9)s, %(ads_removed_flag_m9)s, %(removed_text_m9)s, %(filtered_content_html_m9)s, %(locations_m9)s, %(supplier_location_m9)s, %(category_id_m9)s, %(category_name_m9)s, %(risk_rating_m9)s, %(risk_level_m9)s, %(company_id_m9)s, %(news_id_m9)s, %(analyst_dup_m9)s, %(analyst_cat_m9)s, %(analyst_tag_m9)s, %(analyst_approval_m9)s, %(processed_m9)s, %(analyst_risk_level_m9)s, %(analyst_remark_m9)s, %(analyst_cat_id_m9)s, %(source_m9)s, %(ingestion_date_m9)s, %(created_at_m9)s), (%(date_m10)s, %(headline_m10)s, %(content_m10)s, %(url_m10)s, %(lang_m10)s, %(cutoff_time_m10)s, %(er_uri_m10)s, %(er_is_duplicate_m10)s, %(er_original_uri_m10)s, %(dup_group_id_m10)s, %(is_duplicate_m10)s, %(er_event_uri_m10)s, %(company_name_m10)s, %(blogpost_links_m10)s, %(valid_m10)s, %(cat_reason_m10)s, %(relevance_m10)s, %(qc_tags_m10)s, %(tag_reason_m10)s, %(url_status_m10)s, %(url_status_code_m10)s, %(filtered_content_m10)s, %(ads_removed_flag_m10)s, %(removed_text_m10)s, %(filtered_content_html_m10)s, %(locations_m10)s, %(supplier_location_m10)s, %(category_id_m10)s, %(category_name_m10)s, %(risk_rating_m10)s, %(risk_level_m10)s, %(company_id_m10)s, %(news_id_m10)s, %(analyst_dup_m10)s, %(analyst_cat_m10)s, %(analyst_tag_m10)s, %(analyst_approval_m10)s, %(processed_m10)s, %(analyst_risk_level_m10)s, %(analyst_remark_m10)s, %(analyst_cat_id_m10)s, %(source_m10)s, %(ingestion_date_m10)s, %(created_at_m10)s), (%(date_m11)s, %(headline_m11)s, %(content_m11)s, %(url_m11)s, %(lang_m11)s, %(cutoff_time_m11)s, %(er_uri_m11)s, %(er_is_duplicate_m11)s, %(er_original_uri_m11)s, %(dup_group_id_m11)s, %(is_duplicate_m11)s, %(er_event_uri_m11)s, %(company_name_m11)s, %(blogpost_links_m11)s, %(valid_m11)s, %(cat_reason_m11)s, %(relevance_m11)s, %(qc_tags_m11)s, %(tag_reason_m11)s, %(url_status_m11)s, %(url_status_code_m11)s, %(filtered_content_m11)s, %(ads_removed_flag_m11)s, %(removed_text_m11)s, %(filtered_content_html_m11)s, %(locations_m11)s, %(supplier_location_m11)s, %(category_id_m11)s, %(category_name_m11)s, %(risk_rating_m11)s, %(risk_level_m11)s, %(company_id_m11)s, %(news_id_m11)s, %(analyst_dup_m11)s, %(analyst_cat_m11)s, %(analyst_tag_m11)s, %(analyst_approval_m11)s, %(processed_m11)s, %(analyst_risk_level_m11)s, %(analyst_remark_m11)s, %(analyst_cat_id_m11)s, %(source_m11)s, %(ingestion_date_m11)s, %(created_at_m11)s), (%(date_m12)s, %(headline_m12)s, %(content_m12)s, %(url_m12)s, %(lang_m12)s, %(cutoff_time_m12)s, %(er_uri_m12)s, %(er_is_duplicate_m12)s, %(er_original_uri_m12)s, %(dup_group_id_m12)s, %(is_duplicate_m12)s, %(er_event_uri_m12)s, %(company_name_m12)s, %(blogpost_links_m12)s, %(valid_m12)s, %(cat_reason_m12)s, %(relevance_m12)s, %(qc_tags_m12)s, %(tag_reason_m12)s, %(url_status_m12)s, %(url_status_code_m12)s, %(filtered_content_m12)s, %(ads_removed_flag_m12)s, %(removed_text_m12)s, %(filtered_content_html_m12)s, %(locations_m12)s, %(supplier_location_m12)s, %(category_id_m12)s, %(category_name_m12)s, %(risk_rating_m12)s, %(risk_level_m12)s, %(company_id_m12)s, %(news_id_m12)s, %(analyst_dup_m12)s, %(analyst_cat_m12)s, %(analyst_tag_m12)s, %(analyst_approval_m12)s, %(processed_m12)s, %(analyst_risk_level_m12)s, %(analyst_remark_m12)s, %(analyst_cat_id_m12)s, %(source_m12)s, %(ingestion_date_m12)s, %(created_at_m12)s), (%(date_m13)s, %(headline_m13)s, %(content_m13)s, %(url_m13)s, %(lang_m13)s, %(cutoff_time_m13)s, %(er_uri_m13)s, %(er_is_duplicate_m13)s, %(er_original_uri_m13)s, %(dup_group_id_m13)s, %(is_duplicate_m13)s, %(er_event_uri_m13)s, %(company_name_m13)s, %(blogpost_links_m13)s, %(valid_m13)s, %(cat_reason_m13)s, %(relevance_m13)s, %(qc_tags_m13)s, %(tag_reason_m13)s, %(url_status_m13)s, %(url_status_code_m13)s, %(filtered_content_m13)s, %(ads_removed_flag_m13)s, %(removed_text_m13)s, %(filtered_content_html_m13)s, %(locations_m13)s, %(supplier_location_m13)s, %(category_id_m13)s, %(category_name_m13)s, %(risk_rating_m13)s, %(risk_level_m13)s, %(company_id_m13)s, %(news_id_m13)s, %(analyst_dup_m13)s, %(analyst_cat_m13)s, %(analyst_tag_m13)s, %(analyst_approval_m13)s, %(processed_m13)s, %(analyst_risk_level_m13)s, %(analyst_remark_m13)s, %(analyst_cat_id_m13)s, %(source_m13)s, %(ingestion_date_m13)s, %(created_at_m13)s), (%(date_m14)s, %(headline_m14)s, %(content_m14)s, %(url_m14)s, %(lang_m14)s, %(cutoff_time_m14)s, %(er_uri_m14)s, %(er_is_duplicate_m14)s, %(er_original_uri_m14)s, %(dup_group_id_m14)s, %(is_duplicate_m14)s, %(er_event_uri_m14)s, %(company_name_m14)s, %(blogpost_links_m14)s, %(valid_m14)s, %(cat_reason_m14)s, %(relevance_m14)s, %(qc_tags_m14)s, %(tag_reason_m14)s, %(url_status_m14)s, %(url_status_code_m14)s, %(filtered_content_m14)s, %(ads_removed_flag_m14)s, %(removed_text_m14)s, %(filtered_content_html_m14)s, %(locations_m14)s, %(supplier_location_m14)s, %(category_id_m14)s, %(category_name_m14)s, %(risk_rating_m14)s, %(risk_level_m14)s, %(company_id_m14)s, %(news_id_m14)s, %(analyst_dup_m14)s, %(analyst_cat_m14)s, %(analyst_tag_m14)s, %(analyst_approval_m14)s, %(processed_m14)s, %(analyst_risk_level_m14)s, %(analyst_remark_m14)s, %(analyst_cat_id_m14)s, %(source_m14)s, %(ingestion_date_m14)s, %(created_at_m14)s)]
+[parameters: {'date_m0': datetime.datetime(2026, 2, 3, 8, 16, 25, tzinfo=datetime.timezone.utc), 'headline_m0': '3M Lackschutzfolie: The Surprisingly Simple Upgrade That Keeps Your Car Looking New for Years', 'content_m0': '3M Lackschutzfolie (3M paint protection film) is the invisible armor your car\'s paint has been begging for. If you\'re tired of stone chips, scratch ... (6272 characters truncated) ... l still throw stones, sand, keys, and shopping carts at your car. But with 3Ms clear shield standing guard, your paint finally has a fighting chance.', 'url_m0': 'https://www.ad-hoc-news.de/boerse/ueberblick/3m-lackschutzfolie-the-surprisingly-simple-upgrade-that-keeps-your-car/68546807', 'lang_m0': 'eng', 'cutoff_time_m0': datetime.datetime(2026, 2, 3, 14, 0, 28, 594572), 'er_uri_m0': '9072067291', 'er_is_duplicate_m0': False, 'er_original_uri_m0': None, 'dup_group_id_m0': '9072067291', 'is_duplicate_m0': False, 'er_event_uri_m0': None, 'company_name_m0': '3M', 'blogpost_links_m0': 'https://www.ad-hoc-news.de/boerse/ueberblick/3m-lackschutzfolie-the-surprisingly-simple-upgrade-that-keeps-your-car/68546807', 'valid_m0': True, 'cat_reason_m0': "This appears to be a promotional article about 3M's paint protection film product rather than legitimate news content that could impact business operations or reputation.", 'relevance_m0': 0.2, 'qc_tags_m0': 'Blogpost', 'tag_reason_m0': 'This article reads like a promotional blog post or review rather than news, with subjective language, personal opinions, and marketing-style content promoting 3M paint protection film without any newsworthy event or announcement.', 'url_status_m0': 'Returned 404', 'url_status_code_m0': 404.0, 'filtered_content_m0': '3M Lackschutzfolie (3M paint protection film) is the invisible armor your car\'s paint has been begging for. If you\'re tired of stone chips, scratch ... (6191 characters truncated) ... l still throw stones, sand, keys, and shopping carts at your car. But with 3Ms clear shield standing guard, your paint finally has a fighting chance.', 'ads_removed_flag_m0': False, 'removed_text_m0': '', 'filtered_content_html_m0': '&lt;p&gt;3M Lackschutzfolie (3M paint protection film) is the invisible armor your car\'s paint has been begging for. If you\'re tired of stone chips, scra ... (6342 characters truncated) ... ill throw stones, sand, keys, and shopping carts at your car. But with 3Ms clear shield standing guard, your paint finally has a fighting chance.&lt;/p&gt;', 'locations_m0': 'Germany, United States', 'supplier_location_m0': 'supplier', 'category_id_m0': UUID('5ebb9e70-cde5-4a4b-a11a-737dfc795aec'), 'category_name_m0': 'adverse_media_that_may_damage_reputation_(tv_radio_social_media)', 'risk_rating_m0': 'low', 'risk_level_m0': 1.0, 'company_id_m0': UUID('98ac4fb8-aefb-4572-9910-1977397b7b75'), 'news_id_m0': '20260203_6c3e7bf2-6447-44b0-a08f-81a358746ac0', 'analyst_dup_m0': None, 'analyst_cat_m0': None, 'analyst_tag_m0': None, 'analyst_approval_m0': None, 'processed_m0': None, 'analyst_risk_level_m0': None, 'analyst_remark_m0': None, 'analyst_cat_id_m0': None, 'source_m0': None, 'ingestion_date_m0': datetime.datetime(2026, 2, 3, 14, 2, 34, 911185, tzinfo=datetime.timezone.utc), 'created_at_m0': datetime.datetime(2026, 2, 3, 14, 2, 34, 911185), 'date_m1': datetime.datetime(2026, 2, 2, 15, 7, 7, tzinfo=datetime.timezone.utc), 'headline_m1': '3M Company Stock: Is Wall Street Bullish or Bearish?', 'content_m1': 'All information and data in this article is solely for informational purposes. For more information please view the Barchart Disclosure Policy here\n ... (1774 characters truncated) ... 17.6% premium from MMM\'s current price levels, while the Street-high price target of $200 suggests a 31.2% potential upside from the current levels.', 'url_m1': 'https://www.barchart.com/story/news/37360260/3m-company-stock-is-wall-street-bullish-or-bearish', 'lang_m1': 'eng', 'cutoff_time_m1': datetime.datetime(2026, 2, 3, 14, 0, 28, 594612) ... 560 parameters truncated ... 'analyst_risk_level_m13': None, 'analyst_remark_m13': None, 'analyst_cat_id_m13': None, 'source_m13': None, 'ingestion_date_m13': datetime.datetime(2026, 2, 3, 14, 2, 34, 911185, tzinfo=datetime.timezone.utc), 'created_at_m13': datetime.datetime(2026, 2, 3, 14, 2, 34, 911185), 'date_m14': datetime.datetime(2026, 2, 2, 6, 43, 13, tzinfo=datetime.timezone.utc), 'headline_m14': "Abbott Laboratories Stock Draws Attention with CEO's Strategic Purchase", 'content_m14': 'A significant insider transaction at Abbott Laboratories has captured the market\'s focus, occurring against a backdrop of shifting analyst sentiment ... (2968 characters truncated) ... tly bolster Abbott\'s standing in the cancer diagnostics field -- a potential milestone likely to influence the next phase of the stock\'s valuation.', 'url_m14': 'https://www.ad-hoc-news.de/boerse/ueberblick/abbott-laboratories-stock-draws-attention-with-ceo-s-strategic-purchase/68543260', 'lang_m14': 'eng', 'cutoff_time_m14': datetime.datetime(2026, 2, 3, 14, 0, 34, 208915), 'er_uri_m14': '2026-02-967957145', 'er_is_duplicate_m14': False, 'er_original_uri_m14': None, 'dup_group_id_m14': '2026-02-967957145', 'is_duplicate_m14': False, 'er_event_uri_m14': None, 'company_name_m14': 'Abbott', 'blogpost_links_m14': 'https://www.ad-hoc-news.de/boerse/ueberblick/abbott-laboratories-stock-draws-attention-with-ceo-s-strategic-purchase/68543260', 'valid_m14': True, 'cat_reason_m14': "The article describes Abbott's stock trading 17% below its 200-day moving average following earnings disappointment and multiple analyst downgrades with lowered price targets.", 'relevance_m14': 0.8, 'qc_tags_m14': 'Stock Market Related', 'tag_reason_m14': "The article's primary theme centers on stock purchases, analyst ratings, price targets, and financial trading aspects of Abbott Laboratories stock.", 'url_status_m14': 'Working', 'url_status_code_m14': 200.0, 'filtered_content_m14': 'A significant insider transaction at Abbott Laboratories has captured the market\'s focus, occurring against a backdrop of shifting analyst sentiment ... (2693 characters truncated) ... tly bolster Abbott\'s standing in the cancer diagnostics field -- a potential milestone likely to influence the next phase of the stock\'s va</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>15</v>
+      </c>
+      <c r="G82" t="n">
+        <v>11</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>2</v>
+      </c>
+      <c r="J82" t="n">
+        <v>13</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>20260203_142907</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2026-02-03 14:29:07</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2026-02-03 14:29:33</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>STARTED</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>20260203_143047</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2026-02-03 14:30:47</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2026-02-03 15:08:16</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="n">
+        <v>459</v>
+      </c>
+      <c r="G84" t="n">
+        <v>161</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>210</v>
+      </c>
+      <c r="J84" t="n">
+        <v>249</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>20260204_132422</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2026-02-04 13:24:22</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>2026-02-04 13:59:48</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="n">
+        <v>339</v>
+      </c>
+      <c r="G85" t="n">
+        <v>144</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>152</v>
+      </c>
+      <c r="J85" t="n">
+        <v>187</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="n">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>20260204_150251</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2026-02-04 15:02:51</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2026-02-04 15:06:18</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="n">
+        <v>4</v>
+      </c>
+      <c r="G86" t="n">
+        <v>2</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>3</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" t="n">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
